--- a/display_detection/Data_processing/thermo_scientific_shaking_drybath.xlsx
+++ b/display_detection/Data_processing/thermo_scientific_shaking_drybath.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\camera_detection_system\display_detection\Data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7C0AD1-8F25-4833-A155-62B4D4F8AB18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57338BD7-1450-4DD8-9A42-42D3B261A759}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{8D34CB49-95AA-406F-AE7C-12D872FFF619}"/>
   </bookViews>
   <sheets>
-    <sheet name="07.03.2024" sheetId="6" r:id="rId1"/>
-    <sheet name="22.02.2024" sheetId="5" r:id="rId2"/>
-    <sheet name="21.02.2024" sheetId="4" r:id="rId3"/>
-    <sheet name="14.02.2024" sheetId="3" r:id="rId4"/>
-    <sheet name="08.02.2024" sheetId="2" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
+    <sheet name="02.04.2024" sheetId="7" r:id="rId1"/>
+    <sheet name="07.03.2024" sheetId="6" r:id="rId2"/>
+    <sheet name="22.02.2024" sheetId="5" r:id="rId3"/>
+    <sheet name="21.02.2024" sheetId="4" r:id="rId4"/>
+    <sheet name="14.02.2024" sheetId="3" r:id="rId5"/>
+    <sheet name="08.02.2024" sheetId="2" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="10">
   <si>
     <t>Measuring value1 and time</t>
   </si>
@@ -117,6 +118,550 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Temperature measurement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'02.04.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.43062500000000004</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>0.43783564814814818</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.43859953703703702</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="h:mm:ss">
+                  <c:v>0.43944444444444447</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm:ss">
+                  <c:v>0.4400810185185185</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm:ss">
+                  <c:v>0.44127314814814816</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm:ss">
+                  <c:v>0.4419907407407408</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm:ss">
+                  <c:v>0.44260416666666669</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm:ss">
+                  <c:v>0.44484953703703706</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm:ss">
+                  <c:v>0.44568287037037035</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="h:mm:ss">
+                  <c:v>0.44675925925925924</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="h:mm:ss">
+                  <c:v>0.44937500000000002</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="h:mm:ss">
+                  <c:v>0.59487268518518521</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="h:mm:ss">
+                  <c:v>0.59572916666666664</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="h:mm:ss">
+                  <c:v>0.59633101851851855</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="h:mm:ss">
+                  <c:v>0.59688657407407408</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="h:mm:ss">
+                  <c:v>0.60053240740740743</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="h:mm:ss">
+                  <c:v>0.6013425925925926</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="h:mm:ss">
+                  <c:v>0.60216435185185191</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'02.04.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-209E-4709-9EC6-EA6F45F81E7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1415654224"/>
+        <c:axId val="1414055392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1415654224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1414055392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1414055392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Temperature [°C]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1415654224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -570,7 +1115,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1006,7 +1551,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1472,7 +2017,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2074,6 +2619,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4138,7 +4723,564 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D924CF-289D-4945-BDEB-5F2AB4662EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4179,7 +5321,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4220,7 +5362,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4261,7 +5403,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4598,10 +5740,1947 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0737DD-97F6-40E5-9404-AFC82F3EDEA8}">
+  <dimension ref="A1:AL21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AM1" sqref="AM1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.43062500000000004</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.43783564814814818</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.43859953703703702</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.43944444444444447</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.4400810185185185</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.44127314814814816</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.4419907407407408</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.44260416666666669</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.44484953703703706</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.44568287037037035</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.44675925925925924</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.44937500000000002</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.59487268518518521</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.59572916666666664</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.59633101851851855</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.59688657407407408</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.60053240740740743</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.6013425925925926</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.60216435185185191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>23.1</v>
+      </c>
+      <c r="D3">
+        <v>24.3</v>
+      </c>
+      <c r="F3">
+        <v>26.2</v>
+      </c>
+      <c r="H3">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>30.7</v>
+      </c>
+      <c r="L3">
+        <v>24.3</v>
+      </c>
+      <c r="N3">
+        <v>32.6</v>
+      </c>
+      <c r="P3">
+        <v>32.9</v>
+      </c>
+      <c r="R3">
+        <v>32.9</v>
+      </c>
+      <c r="T3">
+        <v>32.9</v>
+      </c>
+      <c r="V3">
+        <v>24.3</v>
+      </c>
+      <c r="X3">
+        <v>33</v>
+      </c>
+      <c r="Z3">
+        <v>33</v>
+      </c>
+      <c r="AB3">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AD3">
+        <v>33.6</v>
+      </c>
+      <c r="AF3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AH3">
+        <v>34</v>
+      </c>
+      <c r="AJ3">
+        <v>34</v>
+      </c>
+      <c r="AL3">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>45384</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.43062500000000004</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.43783564814814818</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.43859953703703702</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.43944444444444447</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.4400810185185185</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.44127314814814816</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.4419907407407408</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.44260416666666669</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.44484953703703706</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.44568287037037035</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.44675925925925924</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.44937500000000002</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.59487268518518521</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.59572916666666664</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.59633101851851855</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.59688657407407408</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.60053240740740743</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.6013425925925926</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.60216435185185191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>314</v>
+      </c>
+      <c r="Y8">
+        <v>314</v>
+      </c>
+      <c r="AA8">
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AG8">
+        <v>314</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>314</v>
+      </c>
+      <c r="C9">
+        <v>314</v>
+      </c>
+      <c r="E9">
+        <v>314</v>
+      </c>
+      <c r="G9">
+        <v>314</v>
+      </c>
+      <c r="I9">
+        <v>314</v>
+      </c>
+      <c r="K9">
+        <v>314</v>
+      </c>
+      <c r="M9">
+        <v>314</v>
+      </c>
+      <c r="O9">
+        <v>314</v>
+      </c>
+      <c r="Q9">
+        <v>314</v>
+      </c>
+      <c r="S9">
+        <v>314</v>
+      </c>
+      <c r="U9">
+        <v>314</v>
+      </c>
+      <c r="W9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+      <c r="AA9">
+        <v>314</v>
+      </c>
+      <c r="AC9">
+        <v>314</v>
+      </c>
+      <c r="AE9">
+        <v>314</v>
+      </c>
+      <c r="AG9">
+        <v>2</v>
+      </c>
+      <c r="AI9">
+        <v>314</v>
+      </c>
+      <c r="AK9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>23.1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>24.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>26.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>30.7</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>24.3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>32.6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>32.9</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>32.9</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>32.9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>24.3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>33</v>
+      </c>
+      <c r="X11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>33</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>33.6</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>34</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK11">
+        <v>33.9</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J12" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="L12" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="V12" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="X12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK12">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>6</v>
+      </c>
+      <c r="R13" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>0.87759065999999997</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0.90625900000000004</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.9131975</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0.90956079999999995</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.90625900000000004</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0.91709423000000001</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>0.91387945000000004</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>0.91661566000000005</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>0.93076809999999999</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>0.90625900000000004</v>
+      </c>
+      <c r="W14">
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <v>0.93789619999999996</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+      <c r="Z14">
+        <v>0.93789619999999996</v>
+      </c>
+      <c r="AA14">
+        <v>3</v>
+      </c>
+      <c r="AB14">
+        <v>0.92886020000000002</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>0.93196909999999999</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AF14">
+        <v>0.93867529999999999</v>
+      </c>
+      <c r="AG14">
+        <v>3</v>
+      </c>
+      <c r="AH14">
+        <v>0.93342829999999999</v>
+      </c>
+      <c r="AI14">
+        <v>3</v>
+      </c>
+      <c r="AJ14">
+        <v>0.91611105000000004</v>
+      </c>
+      <c r="AK14">
+        <v>3</v>
+      </c>
+      <c r="AL14">
+        <v>0.92974776000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>0.92814152999999999</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.92968010000000001</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>0.92389719999999997</v>
+      </c>
+      <c r="G15">
+        <v>8</v>
+      </c>
+      <c r="H15">
+        <v>0.89644396000000004</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.94628732999999998</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>0.92968010000000001</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0.92030820000000002</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>0.93701610000000002</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <v>0.93118434999999999</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>0.92915519999999996</v>
+      </c>
+      <c r="U15">
+        <v>4</v>
+      </c>
+      <c r="V15">
+        <v>0.92968010000000001</v>
+      </c>
+      <c r="W15">
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <v>0.92465602999999996</v>
+      </c>
+      <c r="Y15">
+        <v>3</v>
+      </c>
+      <c r="Z15">
+        <v>0.92465602999999996</v>
+      </c>
+      <c r="AA15">
+        <v>3</v>
+      </c>
+      <c r="AB15">
+        <v>0.83999299999999999</v>
+      </c>
+      <c r="AC15">
+        <v>3</v>
+      </c>
+      <c r="AD15">
+        <v>0.9200294</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15">
+        <v>0.91795800000000005</v>
+      </c>
+      <c r="AG15">
+        <v>4</v>
+      </c>
+      <c r="AH15">
+        <v>0.90499395000000005</v>
+      </c>
+      <c r="AI15">
+        <v>4</v>
+      </c>
+      <c r="AJ15">
+        <v>0.89070170000000004</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>0.89714760000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.64471840000000002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>0.74547019999999997</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16">
+        <v>0.62464869999999995</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>0.71844940000000002</v>
+      </c>
+      <c r="I16" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>0.62162536000000002</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>0.74547019999999997</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>0.63074403999999995</v>
+      </c>
+      <c r="O16" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>0.70654844999999999</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>0.83393514000000002</v>
+      </c>
+      <c r="S16" t="s">
+        <v>8</v>
+      </c>
+      <c r="T16">
+        <v>0.72876019999999997</v>
+      </c>
+      <c r="U16" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16">
+        <v>0.74547019999999997</v>
+      </c>
+      <c r="W16" t="s">
+        <v>8</v>
+      </c>
+      <c r="X16">
+        <v>0.67778769999999999</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16">
+        <v>0.67778769999999999</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB16">
+        <v>0.74041990000000002</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>0.64760165999999997</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF16">
+        <v>0.75416654000000005</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH16">
+        <v>0.75453705000000004</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ16">
+        <v>0.69190024999999999</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL16">
+        <v>0.70912295999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.83386992999999998</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.91567699999999996</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.89321196000000003</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.95784192999999995</v>
+      </c>
+      <c r="I17">
+        <v>7</v>
+      </c>
+      <c r="J17">
+        <v>0.82620970000000005</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>0.91567699999999996</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>0.92914324999999998</v>
+      </c>
+      <c r="O17">
+        <v>9</v>
+      </c>
+      <c r="P17">
+        <v>0.81922656000000005</v>
+      </c>
+      <c r="Q17">
+        <v>9</v>
+      </c>
+      <c r="R17">
+        <v>0.78890424999999997</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>0.86442149999999995</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>0.91567699999999996</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0.91658722999999998</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0.91658722999999998</v>
+      </c>
+      <c r="AA17">
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <v>0.89627825999999999</v>
+      </c>
+      <c r="AC17">
+        <v>6</v>
+      </c>
+      <c r="AD17">
+        <v>0.94476009999999999</v>
+      </c>
+      <c r="AE17">
+        <v>8</v>
+      </c>
+      <c r="AF17">
+        <v>0.95202299999999995</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0.91368190000000005</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0.96840066000000002</v>
+      </c>
+      <c r="AK17">
+        <v>9</v>
+      </c>
+      <c r="AL17">
+        <v>0.89847803000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.82856600000000002</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>0.80117490000000002</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0.90036899999999997</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>0.89202380000000003</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0.89299107</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>0.80117490000000002</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0.88035165999999998</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>0.88009000000000004</v>
+      </c>
+      <c r="Q18">
+        <v>3</v>
+      </c>
+      <c r="R18">
+        <v>0.89384085000000002</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>0.87199899999999997</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>0.80117490000000002</v>
+      </c>
+      <c r="W18">
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <v>0.87917835</v>
+      </c>
+      <c r="Y18">
+        <v>3</v>
+      </c>
+      <c r="Z18">
+        <v>0.87917835</v>
+      </c>
+      <c r="AA18">
+        <v>3</v>
+      </c>
+      <c r="AB18">
+        <v>0.88972870000000004</v>
+      </c>
+      <c r="AC18">
+        <v>3</v>
+      </c>
+      <c r="AD18">
+        <v>0.90840549999999998</v>
+      </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>0.90999746000000004</v>
+      </c>
+      <c r="AG18">
+        <v>3</v>
+      </c>
+      <c r="AH18">
+        <v>0.90442429999999996</v>
+      </c>
+      <c r="AI18">
+        <v>3</v>
+      </c>
+      <c r="AJ18">
+        <v>0.90462220000000004</v>
+      </c>
+      <c r="AK18">
+        <v>3</v>
+      </c>
+      <c r="AL18">
+        <v>0.89244889999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.89192163999999996</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0.88776040000000001</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>0.87879969999999996</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>0.88159096000000003</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>0.87717336000000001</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>0.88776040000000001</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>0.88130664999999997</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>0.90715900000000005</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>0.89778150000000001</v>
+      </c>
+      <c r="S19">
+        <v>4</v>
+      </c>
+      <c r="T19">
+        <v>0.88157039999999998</v>
+      </c>
+      <c r="U19">
+        <v>4</v>
+      </c>
+      <c r="V19">
+        <v>0.88776040000000001</v>
+      </c>
+      <c r="W19">
+        <v>4</v>
+      </c>
+      <c r="X19">
+        <v>0.90050715000000003</v>
+      </c>
+      <c r="Y19">
+        <v>4</v>
+      </c>
+      <c r="Z19">
+        <v>0.90050715000000003</v>
+      </c>
+      <c r="AA19">
+        <v>4</v>
+      </c>
+      <c r="AB19">
+        <v>0.90845379999999998</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>0.89442222999999998</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>0.88142204000000002</v>
+      </c>
+      <c r="AG19">
+        <v>4</v>
+      </c>
+      <c r="AH19">
+        <v>0.88165559999999998</v>
+      </c>
+      <c r="AI19">
+        <v>4</v>
+      </c>
+      <c r="AJ19">
+        <v>0.89413964999999995</v>
+      </c>
+      <c r="AK19">
+        <v>4</v>
+      </c>
+      <c r="AL19">
+        <v>0.89587859999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>0.67976859999999995</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0.66930263999999995</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0.54447860000000003</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>0.70714515</v>
+      </c>
+      <c r="I20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <v>0.67613140000000005</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>0.66930263999999995</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20">
+        <v>0.57929609999999998</v>
+      </c>
+      <c r="O20" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <v>0.59879225000000003</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20">
+        <v>0.61021829999999999</v>
+      </c>
+      <c r="S20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>0.73846619999999996</v>
+      </c>
+      <c r="U20" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20">
+        <v>0.66930263999999995</v>
+      </c>
+      <c r="W20" t="s">
+        <v>8</v>
+      </c>
+      <c r="X20">
+        <v>0.66841870000000003</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>0.66841870000000003</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB20">
+        <v>0.53261409999999998</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD20">
+        <v>0.68508429999999998</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF20">
+        <v>0.70938159999999995</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH20">
+        <v>0.66184430000000005</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ20">
+        <v>0.60066710000000001</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL20">
+        <v>0.57726750000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>0.90308725999999995</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0.9036594</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0.88578730000000006</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>0.91965799999999998</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>0.92350279999999996</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0.9036594</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>0.85669755999999997</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>0.84897803999999999</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0.88091330000000001</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>0.88249520000000004</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>0.9036594</v>
+      </c>
+      <c r="W21">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>0.91023920000000003</v>
+      </c>
+      <c r="Y21">
+        <v>3</v>
+      </c>
+      <c r="Z21">
+        <v>0.91023920000000003</v>
+      </c>
+      <c r="AA21">
+        <v>3</v>
+      </c>
+      <c r="AB21">
+        <v>0.89580079999999995</v>
+      </c>
+      <c r="AC21">
+        <v>3</v>
+      </c>
+      <c r="AD21">
+        <v>0.91380835000000005</v>
+      </c>
+      <c r="AE21">
+        <v>3</v>
+      </c>
+      <c r="AF21">
+        <v>0.92843989999999998</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>0.9179503</v>
+      </c>
+      <c r="AI21">
+        <v>3</v>
+      </c>
+      <c r="AJ21">
+        <v>0.90282196000000003</v>
+      </c>
+      <c r="AK21">
+        <v>3</v>
+      </c>
+      <c r="AL21">
+        <v>0.90010730000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AC0237-7E8E-4A4D-A5DC-34C1602988EA}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -5049,7 +8128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A339A02-74A1-4A99-B3D1-EEC41C0FD145}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -5204,7 +8283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB365E5-EE9B-405C-B968-EABE36EB5A33}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5216,7 +8295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDFB145B-3182-4078-91EE-7F0AA68B2932}">
   <dimension ref="A1:L21"/>
   <sheetViews>
@@ -5791,7 +8870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEBBC77-B2A5-4746-9979-6A804945CD5B}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -6045,7 +9124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A7B32C-0607-4DF8-A992-CA319BFAC6EF}">
   <dimension ref="A1"/>
   <sheetViews>
